--- a/EDA/AML_Dataset_Summary.xlsx
+++ b/EDA/AML_Dataset_Summary.xlsx
@@ -576,7 +576,7 @@
         <v>8500</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         <v>5000</v>
       </c>
       <c r="C7" s="7" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D7" s="7" t="inlineStr">
         <is>
@@ -612,7 +612,7 @@
         <v>6000</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="B5" s="5" t="n">
-        <v>2470</v>
+        <v>2519</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>29.06</v>
+        <v>29.64</v>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
@@ -966,10 +966,10 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5060</v>
+        <v>5034</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>59.53</v>
+        <v>59.22</v>
       </c>
       <c r="I5" s="4" t="inlineStr">
         <is>
@@ -987,10 +987,10 @@
         </is>
       </c>
       <c r="B6" s="7" t="n">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="C6" s="7" t="n">
-        <v>15</v>
+        <v>14.95</v>
       </c>
       <c r="E6" s="6" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
         </is>
       </c>
       <c r="F6" s="7" t="n">
-        <v>2557</v>
+        <v>2560</v>
       </c>
       <c r="G6" s="7" t="n">
-        <v>30.08</v>
+        <v>30.12</v>
       </c>
       <c r="I6" s="6" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         </is>
       </c>
       <c r="J6" s="7" t="n">
-        <v>36123.35</v>
+        <v>36162.75</v>
       </c>
     </row>
     <row r="7">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B7" s="5" t="n">
-        <v>1092</v>
+        <v>1048</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>12.85</v>
+        <v>12.33</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
@@ -1030,10 +1030,10 @@
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>883</v>
+        <v>906</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>10.39</v>
+        <v>10.66</v>
       </c>
       <c r="I7" s="4" t="inlineStr">
         <is>
@@ -1041,20 +1041,20 @@
         </is>
       </c>
       <c r="J7" s="5" t="n">
-        <v>44608.44</v>
+        <v>45903.82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>retired</t>
+          <t>government_employee</t>
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>949</v>
+        <v>883</v>
       </c>
       <c r="C8" s="7" t="n">
-        <v>11.16</v>
+        <v>10.39</v>
       </c>
       <c r="I8" s="6" t="inlineStr">
         <is>
@@ -1062,20 +1062,20 @@
         </is>
       </c>
       <c r="J8" s="7" t="n">
-        <v>527.49</v>
+        <v>599.21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>government_employee</t>
+          <t>retired</t>
         </is>
       </c>
       <c r="B9" s="5" t="n">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>10.27</v>
+        <v>10.33</v>
       </c>
       <c r="I9" s="4" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="J9" s="5" t="n">
-        <v>11165.28</v>
+        <v>11200.82</v>
       </c>
     </row>
     <row r="10" ht="22" customHeight="1">
@@ -1093,10 +1093,10 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>653</v>
+        <v>691</v>
       </c>
       <c r="C10" s="7" t="n">
-        <v>7.68</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         </is>
       </c>
       <c r="J10" s="7" t="n">
-        <v>21793.16</v>
+        <v>21841.04</v>
       </c>
     </row>
     <row r="11">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="B11" s="5" t="n">
-        <v>609</v>
+        <v>645</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.16</v>
+        <v>7.59</v>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         </is>
       </c>
       <c r="J11" s="5" t="n">
-        <v>43394.32</v>
+        <v>43708.2</v>
       </c>
     </row>
     <row r="12">
@@ -1155,10 +1155,10 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="C12" s="7" t="n">
-        <v>6.81</v>
+        <v>6.65</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
@@ -1166,10 +1166,10 @@
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4282</v>
+        <v>4274</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>50.38</v>
+        <v>50.28</v>
       </c>
       <c r="I12" s="6" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="J12" s="7" t="n">
-        <v>594079.71</v>
+        <v>663447.71</v>
       </c>
     </row>
     <row r="13">
@@ -1187,10 +1187,10 @@
         </is>
       </c>
       <c r="F13" s="7" t="n">
-        <v>2604</v>
+        <v>2651</v>
       </c>
       <c r="G13" s="7" t="n">
-        <v>30.64</v>
+        <v>31.19</v>
       </c>
     </row>
     <row r="14">
@@ -1200,10 +1200,10 @@
         </is>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1614</v>
+        <v>1575</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>18.99</v>
+        <v>18.53</v>
       </c>
     </row>
     <row r="15" ht="22" customHeight="1">
@@ -1252,10 +1252,10 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>2926</v>
+        <v>2965</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>34.42</v>
+        <v>34.88</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
@@ -1278,10 +1278,10 @@
         </is>
       </c>
       <c r="B18" s="7" t="n">
-        <v>2237</v>
+        <v>2173</v>
       </c>
       <c r="C18" s="7" t="n">
-        <v>26.32</v>
+        <v>25.56</v>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="J18" s="7" t="n">
-        <v>1005.82</v>
+        <v>1024.7</v>
       </c>
     </row>
     <row r="19">
@@ -1314,10 +1314,10 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1286</v>
+        <v>1278</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>15.13</v>
+        <v>15.04</v>
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="J19" s="5" t="n">
-        <v>566.0599999999999</v>
+        <v>566.25</v>
       </c>
     </row>
     <row r="20">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="B20" s="7" t="n">
-        <v>1185</v>
+        <v>1199</v>
       </c>
       <c r="C20" s="7" t="n">
-        <v>13.94</v>
+        <v>14.11</v>
       </c>
       <c r="E20" s="6" t="inlineStr">
         <is>
@@ -1357,10 +1357,10 @@
         </is>
       </c>
       <c r="F20" s="7" t="n">
-        <v>1045</v>
+        <v>989</v>
       </c>
       <c r="G20" s="7" t="n">
-        <v>12.29</v>
+        <v>11.64</v>
       </c>
       <c r="I20" s="6" t="inlineStr">
         <is>
@@ -1378,10 +1378,10 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>866</v>
+        <v>885</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>10.19</v>
+        <v>10.41</v>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
@@ -1389,10 +1389,10 @@
         </is>
       </c>
       <c r="F21" s="5" t="n">
-        <v>971</v>
+        <v>940</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>11.42</v>
+        <v>11.06</v>
       </c>
       <c r="I21" s="4" t="inlineStr">
         <is>
@@ -1400,20 +1400,20 @@
         </is>
       </c>
       <c r="J21" s="5" t="n">
-        <v>520</v>
+        <v>545</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" s="6" t="inlineStr">
         <is>
-          <t>real_estate</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="F22" s="7" t="n">
-        <v>844</v>
+        <v>871</v>
       </c>
       <c r="G22" s="7" t="n">
-        <v>9.93</v>
+        <v>10.25</v>
       </c>
       <c r="I22" s="6" t="inlineStr">
         <is>
@@ -1421,20 +1421,20 @@
         </is>
       </c>
       <c r="J22" s="7" t="n">
-        <v>996</v>
+        <v>1031.5</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>manufacturing</t>
+          <t>healthcare</t>
         </is>
       </c>
       <c r="F23" s="5" t="n">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>9.890000000000001</v>
+        <v>9.94</v>
       </c>
       <c r="I23" s="4" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1494.25</v>
+        <v>1510.25</v>
       </c>
     </row>
     <row r="24" ht="22" customHeight="1">
@@ -1453,14 +1453,14 @@
       </c>
       <c r="E24" s="6" t="inlineStr">
         <is>
-          <t>healthcare</t>
+          <t>manufacturing</t>
         </is>
       </c>
       <c r="F24" s="7" t="n">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="G24" s="7" t="n">
-        <v>9.869999999999999</v>
+        <v>9.85</v>
       </c>
       <c r="I24" s="6" t="inlineStr">
         <is>
@@ -1489,14 +1489,14 @@
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>real_estate</t>
         </is>
       </c>
       <c r="F25" s="5" t="n">
-        <v>788</v>
+        <v>810</v>
       </c>
       <c r="G25" s="5" t="n">
-        <v>9.27</v>
+        <v>9.529999999999999</v>
       </c>
     </row>
     <row r="26">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="B26" s="5" t="n">
-        <v>4255</v>
+        <v>4318</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>50.06</v>
+        <v>50.8</v>
       </c>
       <c r="E26" s="6" t="inlineStr">
         <is>
@@ -1517,10 +1517,10 @@
         </is>
       </c>
       <c r="F26" s="7" t="n">
-        <v>779</v>
+        <v>757</v>
       </c>
       <c r="G26" s="7" t="n">
-        <v>9.16</v>
+        <v>8.91</v>
       </c>
     </row>
     <row r="27">
@@ -1530,21 +1530,21 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>2529</v>
+        <v>2472</v>
       </c>
       <c r="C27" s="7" t="n">
-        <v>29.75</v>
+        <v>29.08</v>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>hospitality</t>
+          <t>construction</t>
         </is>
       </c>
       <c r="F27" s="5" t="n">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>8.26</v>
+        <v>8.279999999999999</v>
       </c>
     </row>
     <row r="28">
@@ -1554,21 +1554,21 @@
         </is>
       </c>
       <c r="B28" s="5" t="n">
-        <v>1716</v>
+        <v>1710</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>20.19</v>
+        <v>20.12</v>
       </c>
       <c r="E28" s="6" t="inlineStr">
         <is>
-          <t>construction</t>
+          <t>hospitality</t>
         </is>
       </c>
       <c r="F28" s="7" t="n">
-        <v>626</v>
+        <v>682</v>
       </c>
       <c r="G28" s="7" t="n">
-        <v>7.36</v>
+        <v>8.02</v>
       </c>
     </row>
     <row r="31" ht="22" customHeight="1">
@@ -1622,10 +1622,10 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>4347</v>
+        <v>4328</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>51.14</v>
+        <v>50.92</v>
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
@@ -1646,10 +1646,10 @@
         </is>
       </c>
       <c r="B34" s="7" t="n">
-        <v>2479</v>
+        <v>2521</v>
       </c>
       <c r="C34" s="7" t="n">
-        <v>29.16</v>
+        <v>29.66</v>
       </c>
       <c r="E34" s="6" t="inlineStr">
         <is>
@@ -1670,10 +1670,10 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>1267</v>
+        <v>1259</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>14.91</v>
+        <v>14.81</v>
       </c>
     </row>
     <row r="36">
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B36" s="7" t="n">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="C36" s="7" t="n">
-        <v>4.79</v>
+        <v>4.61</v>
       </c>
     </row>
   </sheetData>
@@ -2562,7 +2562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2613,36 +2613,36 @@
         </is>
       </c>
       <c r="B5" s="5" t="n">
-        <v>3632</v>
+        <v>3304</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>60.53</v>
+        <v>55.07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
         <is>
-          <t>merchant</t>
+          <t>business</t>
         </is>
       </c>
       <c r="B6" s="7" t="n">
-        <v>1787</v>
+        <v>1503</v>
       </c>
       <c r="C6" s="7" t="n">
-        <v>29.78</v>
+        <v>25.05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>offshore</t>
+          <t>shell_company</t>
         </is>
       </c>
       <c r="B7" s="5" t="n">
-        <v>296</v>
+        <v>469</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>4.93</v>
+        <v>7.82</v>
       </c>
     </row>
     <row r="8">
@@ -2652,162 +2652,175 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>285</v>
+        <v>410</v>
       </c>
       <c r="C8" s="7" t="n">
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="11" ht="22" customHeight="1">
-      <c r="A11" s="2" t="inlineStr">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>offshore</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>314</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>5.23</v>
+      </c>
+    </row>
+    <row r="12" ht="22" customHeight="1">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>Beneficiary Country Risk</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Country Risk</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Count</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>Percentage (%)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t>low</t>
         </is>
       </c>
-      <c r="B13" s="5" t="n">
-        <v>3940</v>
-      </c>
-      <c r="C13" s="5" t="n">
-        <v>65.67</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="inlineStr">
+      <c r="B14" s="5" t="n">
+        <v>3333</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>55.55</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="B14" s="7" t="n">
-        <v>1481</v>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v>24.68</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="B15" s="7" t="n">
+        <v>1483</v>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>24.72</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>high</t>
         </is>
       </c>
-      <c r="B15" s="5" t="n">
-        <v>579</v>
-      </c>
-      <c r="C15" s="5" t="n">
-        <v>9.65</v>
-      </c>
-    </row>
-    <row r="18" ht="22" customHeight="1">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="B16" s="5" t="n">
+        <v>1184</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>19.73</v>
+      </c>
+    </row>
+    <row r="19" ht="22" customHeight="1">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>Risk Commentary by Type</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr">
+      <c r="B20" s="3" t="inlineStr">
         <is>
           <t>Share</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
+      <c r="C20" s="3" t="inlineStr">
         <is>
           <t>Risk Commentary</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="4" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="4" t="inlineStr">
         <is>
           <t>individual</t>
         </is>
       </c>
-      <c r="B20" s="5" t="inlineStr">
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>60.8%</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>Standard personal transfers — baseline risk</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="6" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
         <is>
           <t>merchant</t>
         </is>
       </c>
-      <c r="B21" s="7" t="inlineStr">
+      <c r="B22" s="7" t="inlineStr">
         <is>
           <t>30.2%</t>
         </is>
       </c>
-      <c r="C21" s="7" t="inlineStr">
+      <c r="C22" s="7" t="inlineStr">
         <is>
           <t>Business/retail transactions — moderate risk</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="4" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="4" t="inlineStr">
         <is>
           <t>offshore</t>
         </is>
       </c>
-      <c r="B22" s="5" t="inlineStr">
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>4.6%</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr">
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>⚠️ Offshore entities — elevated AML risk</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="6" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="6" t="inlineStr">
         <is>
           <t>crypto</t>
         </is>
       </c>
-      <c r="B23" s="7" t="inlineStr">
+      <c r="B24" s="7" t="inlineStr">
         <is>
           <t>4.4%</t>
         </is>
       </c>
-      <c r="C23" s="7" t="inlineStr">
+      <c r="C24" s="7" t="inlineStr">
         <is>
           <t>🔴 Crypto wallets — high anonymity, high AML concern</t>
         </is>
@@ -2815,10 +2828,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A12:C12"/>
     <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A19:C19"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A18:C18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2901,10 +2914,10 @@
         </is>
       </c>
       <c r="B5" s="5" t="n">
-        <v>1994</v>
+        <v>1978</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>44.31</v>
+        <v>43.96</v>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
@@ -2922,10 +2935,10 @@
         </is>
       </c>
       <c r="B6" s="7" t="n">
-        <v>1860</v>
+        <v>1809</v>
       </c>
       <c r="C6" s="7" t="n">
-        <v>41.33</v>
+        <v>40.2</v>
       </c>
       <c r="E6" s="6" t="inlineStr">
         <is>
@@ -2933,7 +2946,7 @@
         </is>
       </c>
       <c r="F6" s="7" t="n">
-        <v>778.26</v>
+        <v>760.51</v>
       </c>
     </row>
     <row r="7">
@@ -2943,10 +2956,10 @@
         </is>
       </c>
       <c r="B7" s="5" t="n">
-        <v>448</v>
+        <v>472</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>9.960000000000001</v>
+        <v>10.49</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
@@ -2954,7 +2967,7 @@
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>420.1</v>
+        <v>423.79</v>
       </c>
     </row>
     <row r="8">
@@ -2964,10 +2977,10 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>198</v>
+        <v>241</v>
       </c>
       <c r="C8" s="7" t="n">
-        <v>4.4</v>
+        <v>5.36</v>
       </c>
       <c r="E8" s="6" t="inlineStr">
         <is>
@@ -2985,7 +2998,7 @@
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>422</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10">
@@ -2995,7 +3008,7 @@
         </is>
       </c>
       <c r="F10" s="7" t="n">
-        <v>786</v>
+        <v>766</v>
       </c>
     </row>
     <row r="11" ht="22" customHeight="1">
@@ -3010,7 +3023,7 @@
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1151</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="12">
@@ -3045,10 +3058,10 @@
         </is>
       </c>
       <c r="B13" s="5" t="n">
-        <v>4299</v>
+        <v>4305</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>95.53</v>
+        <v>95.67</v>
       </c>
     </row>
     <row r="14">
@@ -3058,10 +3071,10 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C14" s="7" t="n">
-        <v>4.47</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="15" ht="22" customHeight="1">
@@ -3110,10 +3123,10 @@
         </is>
       </c>
       <c r="F17" s="5" t="n">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>4.47</v>
+        <v>4.33</v>
       </c>
       <c r="H17" s="5" t="inlineStr">
         <is>
@@ -3148,10 +3161,10 @@
         </is>
       </c>
       <c r="F18" s="7" t="n">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G18" s="7" t="n">
-        <v>8.31</v>
+        <v>8.27</v>
       </c>
       <c r="H18" s="7" t="inlineStr">
         <is>
@@ -3171,10 +3184,10 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>4126</v>
+        <v>4128</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>91.69</v>
+        <v>91.73</v>
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
@@ -3182,10 +3195,10 @@
         </is>
       </c>
       <c r="F19" s="5" t="n">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>2.84</v>
+        <v>3.04</v>
       </c>
       <c r="H19" s="5" t="inlineStr">
         <is>
@@ -3205,10 +3218,10 @@
         </is>
       </c>
       <c r="B20" s="7" t="n">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C20" s="7" t="n">
-        <v>8.31</v>
+        <v>8.27</v>
       </c>
       <c r="E20" s="6" t="inlineStr">
         <is>
@@ -3216,10 +3229,10 @@
         </is>
       </c>
       <c r="F20" s="7" t="n">
-        <v>198</v>
+        <v>241</v>
       </c>
       <c r="G20" s="7" t="n">
-        <v>4.4</v>
+        <v>5.36</v>
       </c>
       <c r="H20" s="7" t="inlineStr">
         <is>
@@ -3263,10 +3276,10 @@
         </is>
       </c>
       <c r="B25" s="5" t="n">
-        <v>4372</v>
+        <v>4363</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>97.16</v>
+        <v>96.95999999999999</v>
       </c>
     </row>
     <row r="26">
@@ -3276,10 +3289,10 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C26" s="7" t="n">
-        <v>2.84</v>
+        <v>3.04</v>
       </c>
     </row>
   </sheetData>
